--- a/UDMI-CREATION/EASY-IO/ahu-all-ddc.xlsx
+++ b/UDMI-CREATION/EASY-IO/ahu-all-ddc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\Commissioning\GCP_ONBOARDING\KYOTOW\UDMI-CREATION\EASY-IO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\UDMI-CREATION\EASY-IO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743A97EB-C659-4537-BE3B-15E3C4FBD73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D02748-A4A5-43A1-9E88-6FE69E57DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3989,8 +3989,8 @@
   <dimension ref="A1:G1306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C332" sqref="C332"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
